--- a/11.NTW.DIP/files/DIP.NTW26_ip-address-table.xlsx
+++ b/11.NTW.DIP/files/DIP.NTW26_ip-address-table.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="сводная таблица" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="сводная таблица" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="167">
   <si>
     <t xml:space="preserve">ЦО:</t>
   </si>
@@ -484,7 +484,7 @@
     <t xml:space="preserve">wlc</t>
   </si>
   <si>
-    <t xml:space="preserve">mgmt 192.168.10.6/25</t>
+    <t xml:space="preserve">vlan 300 192.168.30.5/24</t>
   </si>
   <si>
     <t xml:space="preserve">vlan 500</t>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t xml:space="preserve">x/x.201 192.168.21.1/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x/x.301 192.168.31.1/26</t>
   </si>
   <si>
     <t xml:space="preserve">x/x.401 192.168.41.1/26</t>
@@ -625,7 +628,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -636,18 +639,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -656,16 +659,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left style="thin"/>
       <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -693,12 +689,26 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
-      <top style="thin"/>
+      <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -714,8 +724,36 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -739,27 +777,6 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -786,225 +803,177 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1037,8 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFE7E6E6"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1111,1282 +1080,1305 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="43.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="48.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="61.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="43.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="48.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="61.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L1" s="2"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="K6" s="18" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="n">
+      <c r="C7" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="9" t="n">
         <v>201</v>
       </c>
-      <c r="E7" s="26" t="n">
+      <c r="E7" s="9" t="n">
+        <v>301</v>
+      </c>
+      <c r="F7" s="9" t="n">
         <v>401</v>
       </c>
-      <c r="F7" s="26" t="n">
+      <c r="G7" s="9" t="n">
         <v>501</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="33" t="s">
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36" t="s">
+      <c r="H13" s="25"/>
+      <c r="I13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="33" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40" t="s">
+      <c r="M14" s="28"/>
+      <c r="N14" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="36" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40" t="s">
+      <c r="M15" s="28"/>
+      <c r="N15" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40" t="s">
+      <c r="M16" s="28"/>
+      <c r="N16" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="N17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N18" s="28"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="2"/>
+      <c r="N18" s="20"/>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="K19" s="18" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="K19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="28" t="s">
+      <c r="N19" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="K20" s="18" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="K20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="2"/>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="K21" s="18" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="K21" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="2"/>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="K22" s="18" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="K22" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="K23" s="18" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="K23" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="N23" s="28" t="s">
+      <c r="N23" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="2"/>
+      <c r="R23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="K24" s="18" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="K24" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="N24" s="28" t="s">
+      <c r="N24" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="K25" s="18" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="K25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="K26" s="18" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="K26" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="N26" s="28" t="s">
+      <c r="N26" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="45"/>
+      <c r="R26" s="34"/>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="44" t="n">
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37" t="n">
         <v>65100</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="N27" s="28" t="s">
+      <c r="N27" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="45"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="K28" s="47" t="n">
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="K28" s="38" t="n">
         <v>65100</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="48"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="20"/>
+      <c r="R28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="K29" s="50" t="n">
+      <c r="I29" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="40" t="n">
         <v>65200</v>
       </c>
-      <c r="L29" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="M29" s="51"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="45"/>
+      <c r="L29" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="R30" s="45"/>
+      <c r="C30" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="R30" s="34"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="53" t="s">
+      <c r="B31" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="R31" s="45"/>
+      <c r="C31" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="R31" s="34"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R32" s="48"/>
+      <c r="R32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="48"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="R33" s="48"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="R33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="48"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="R34" s="48"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="R34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="48"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="R35" s="48"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="R35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="48"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="R36" s="48"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="R36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="48"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="R37" s="48"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="R37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="48"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="R38" s="48"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="R38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="48"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="N39" s="2"/>
-      <c r="R39" s="48"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="N39" s="3"/>
+      <c r="R39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="48"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="45"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="34"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="48"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="48"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="48"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="48"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="48"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="48"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="48"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="B47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="48"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="B48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="48"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="B49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="48"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="B50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="48"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="B51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="48"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="B52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="48"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="B53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="48"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="B54" s="3"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="48"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="B55" s="3"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="48"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="L56" s="45"/>
+      <c r="B56" s="3"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="L56" s="34"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="48"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="L57" s="45"/>
+      <c r="B57" s="3"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="L57" s="34"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="48"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="L58" s="45"/>
+      <c r="B58" s="3"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="L58" s="34"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="45"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="L59" s="48"/>
+      <c r="B59" s="34"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="L59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="45"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="L60" s="48"/>
+      <c r="B60" s="34"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="L60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="2"/>
-      <c r="L61" s="48"/>
+      <c r="B61" s="3"/>
+      <c r="L61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="2"/>
-      <c r="L62" s="48"/>
+      <c r="B62" s="3"/>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="2"/>
-      <c r="L63" s="48"/>
+      <c r="B63" s="3"/>
+      <c r="L63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="2"/>
-      <c r="L64" s="48"/>
+      <c r="B64" s="3"/>
+      <c r="L64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="2"/>
-      <c r="L65" s="48"/>
+      <c r="B65" s="3"/>
+      <c r="L65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2"/>
-      <c r="L66" s="48"/>
+      <c r="B66" s="3"/>
+      <c r="L66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="2"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="2"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="2"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="2"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="2"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="2"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="2"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="2"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="2"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="2"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="2"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="2"/>
+      <c r="B79" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
